--- a/info.xlsx
+++ b/info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Дней тренировок подряд</t>
   </si>
@@ -68,13 +68,25 @@
   </si>
   <si>
     <t>Тренировка с самым низким темпом</t>
+  </si>
+  <si>
+    <t>Время начала тренировки</t>
+  </si>
+  <si>
+    <t>Самая ранняя тренировка</t>
+  </si>
+  <si>
+    <t>Самая поздняя тренировка</t>
+  </si>
+  <si>
+    <t>Столько же калорий содержится в 86,21 литрах пива</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,21 +96,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
@@ -125,8 +122,31 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +231,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -240,9 +266,60 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -253,16 +330,16 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -276,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,68 +376,101 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +517,7 @@
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>Именно на таком расстоянии друг от друга находятся "Архангельск" и "Сыктывкар"</v>
+            <v>Именно на таком расстоянии друг от друга находятся "Пенза" и "Белебей"</v>
           </cell>
         </row>
         <row r="5">
@@ -431,6 +541,9 @@
           <cell r="F8" t="str">
             <v>05.06.2022</v>
           </cell>
+          <cell r="G8" t="str">
+            <v>06:57:00</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="B9" t="str">
@@ -448,6 +561,9 @@
           <cell r="F9" t="str">
             <v>24.02.2022</v>
           </cell>
+          <cell r="G9" t="str">
+            <v>09:31:15</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10" t="str">
@@ -465,6 +581,9 @@
           <cell r="F10" t="str">
             <v>04.07.2022</v>
           </cell>
+          <cell r="G10" t="str">
+            <v>06:47:55</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11" t="str">
@@ -482,6 +601,9 @@
           <cell r="F11" t="str">
             <v>26.03.2022</v>
           </cell>
+          <cell r="G11" t="str">
+            <v>06:42:15</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12" t="str">
@@ -499,6 +621,9 @@
           <cell r="F12" t="str">
             <v>28.05.2022</v>
           </cell>
+          <cell r="G12" t="str">
+            <v>06:28:39</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13" t="str">
@@ -515,6 +640,49 @@
           </cell>
           <cell r="F13" t="str">
             <v>05.06.2022</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>06:57:00</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>228</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>00:05:02</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>00:17:21</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>3,44 км</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>21.04.2022</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>05:22:25</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>255</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>00:04:24</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>00:17:24</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>3,95 км</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>12.06.2022</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>20:02:19</v>
           </cell>
         </row>
       </sheetData>
@@ -810,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,262 +992,357 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="44.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="str">
+      <c r="B1" s="27" t="str">
         <f>[1]Sheet0!$B$1</f>
         <v>174</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="27" t="str">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="31" t="str">
         <f>[1]Sheet0!$F$1</f>
         <v>21.01.2022-13.07.2022</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="G1" s="32"/>
+    </row>
+    <row r="2" spans="1:7" ht="44.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="28" t="str">
         <f>[1]Sheet0!$B$2</f>
         <v>50:33:47</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="29" t="str">
         <f>[1]Sheet0!$B$3</f>
         <v>613,12 км</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="26" t="str">
+      <c r="B4" s="30" t="str">
         <f>[1]Sheet0!$B$4</f>
-        <v>Именно на таком расстоянии друг от друга находятся "Архангельск" и "Сыктывкар"</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+        <v>Именно на таком расстоянии друг от друга находятся "Пенза" и "Белебей"</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="str">
+      <c r="B5" s="37" t="str">
         <f>[1]Sheet0!$B$5</f>
         <v>39 763 килокалорий</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="27"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="14" t="str">
         <f>[1]Sheet0!$B$8</f>
         <v>379</v>
       </c>
-      <c r="C8" s="17" t="str">
+      <c r="C8" s="14" t="str">
         <f>[1]Sheet0!$C$8</f>
         <v>00:05:36</v>
       </c>
-      <c r="D8" s="17" t="str">
+      <c r="D8" s="14" t="str">
         <f>[1]Sheet0!$D$8</f>
         <v>00:30:55</v>
       </c>
-      <c r="E8" s="17" t="str">
+      <c r="E8" s="14" t="str">
         <f>[1]Sheet0!$E$8</f>
         <v>5,51 км</v>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="14" t="str">
         <f>[1]Sheet0!$F$8</f>
         <v>05.06.2022</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="G8" s="14" t="str">
+        <f>[1]Sheet0!$G$8</f>
+        <v>06:57:00</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="str">
+      <c r="B9" s="15" t="str">
         <f>[1]Sheet0!$B$9</f>
         <v>164</v>
       </c>
-      <c r="C9" s="18" t="str">
+      <c r="C9" s="15" t="str">
         <f>[1]Sheet0!$C$9</f>
         <v>00:04:41</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="15" t="str">
         <f>[1]Sheet0!$D$9</f>
         <v>00:13:53</v>
       </c>
-      <c r="E9" s="18" t="str">
+      <c r="E9" s="15" t="str">
         <f>[1]Sheet0!$E$9</f>
         <v>2,96 км</v>
       </c>
-      <c r="F9" s="18" t="str">
+      <c r="F9" s="15" t="str">
         <f>[1]Sheet0!$F$9</f>
         <v>24.02.2022</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="G9" s="15" t="str">
+        <f>[1]Sheet0!$G$9</f>
+        <v>09:31:15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19" t="str">
+      <c r="B10" s="16" t="str">
         <f>[1]Sheet0!$B$10</f>
         <v>272</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="16" t="str">
         <f>[1]Sheet0!$C$10</f>
         <v>00:06:11</v>
       </c>
-      <c r="D10" s="19" t="str">
+      <c r="D10" s="16" t="str">
         <f>[1]Sheet0!$D$10</f>
         <v>00:25:15</v>
       </c>
-      <c r="E10" s="19" t="str">
+      <c r="E10" s="16" t="str">
         <f>[1]Sheet0!$E$10</f>
         <v>4,08 км</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="F10" s="16" t="str">
         <f>[1]Sheet0!$F$10</f>
         <v>04.07.2022</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="G10" s="16" t="str">
+        <f>[1]Sheet0!$G$10</f>
+        <v>06:47:55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20" t="str">
+      <c r="B11" s="17" t="str">
         <f>[1]Sheet0!$B$11</f>
         <v>179</v>
       </c>
-      <c r="C11" s="20" t="str">
+      <c r="C11" s="17" t="str">
         <f>[1]Sheet0!$C$11</f>
         <v>00:04:10</v>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" s="17" t="str">
         <f>[1]Sheet0!$D$11</f>
         <v>00:13:25</v>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" s="17" t="str">
         <f>[1]Sheet0!$E$11</f>
         <v>3,22 км</v>
       </c>
-      <c r="F11" s="20" t="str">
+      <c r="F11" s="17" t="str">
         <f>[1]Sheet0!$F$11</f>
         <v>26.03.2022</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="G11" s="17" t="str">
+        <f>[1]Sheet0!$G$11</f>
+        <v>06:42:15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="18" t="str">
         <f>[1]Sheet0!$B$12</f>
         <v>168</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="18" t="str">
         <f>[1]Sheet0!$C$12</f>
         <v>00:04:35</v>
       </c>
-      <c r="D12" s="21" t="str">
+      <c r="D12" s="18" t="str">
         <f>[1]Sheet0!$D$12</f>
         <v>00:12:19</v>
       </c>
-      <c r="E12" s="21" t="str">
+      <c r="E12" s="18" t="str">
         <f>[1]Sheet0!$E$12</f>
         <v>2,69 км</v>
       </c>
-      <c r="F12" s="21" t="str">
+      <c r="F12" s="18" t="str">
         <f>[1]Sheet0!$F$12</f>
         <v>28.05.2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="18" t="str">
+        <f>[1]Sheet0!$G$12</f>
+        <v>06:28:39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="19" t="str">
         <f>[1]Sheet0!$B$13</f>
         <v>379</v>
       </c>
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="19" t="str">
         <f>[1]Sheet0!$C$13</f>
         <v>00:05:36</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="19" t="str">
         <f>[1]Sheet0!$D$13</f>
         <v>00:30:55</v>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="19" t="str">
         <f>[1]Sheet0!$E$13</f>
         <v>5,51 км</v>
       </c>
-      <c r="F13" s="22" t="str">
+      <c r="F13" s="19" t="str">
         <f>[1]Sheet0!$F$13</f>
         <v>05.06.2022</v>
       </c>
+      <c r="G13" s="19" t="str">
+        <f>[1]Sheet0!$G$13</f>
+        <v>06:57:00</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f>[1]Sheet0!$B$14</f>
+        <v>228</v>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f>[1]Sheet0!$C$14</f>
+        <v>00:05:02</v>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>[1]Sheet0!$D$14</f>
+        <v>00:17:21</v>
+      </c>
+      <c r="E14" s="22" t="str">
+        <f>[1]Sheet0!$E$14</f>
+        <v>3,44 км</v>
+      </c>
+      <c r="F14" s="22" t="str">
+        <f>[1]Sheet0!$F$14</f>
+        <v>21.04.2022</v>
+      </c>
+      <c r="G14" s="22" t="str">
+        <f>[1]Sheet0!$G$14</f>
+        <v>05:22:25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>[1]Sheet0!$B$15</f>
+        <v>255</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>[1]Sheet0!$C$15</f>
+        <v>00:04:24</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f>[1]Sheet0!$D$15</f>
+        <v>00:17:24</v>
+      </c>
+      <c r="E15" s="23" t="str">
+        <f>[1]Sheet0!$E$15</f>
+        <v>3,95 км</v>
+      </c>
+      <c r="F15" s="23" t="str">
+        <f>[1]Sheet0!$F$15</f>
+        <v>12.06.2022</v>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f>[1]Sheet0!$G$15</f>
+        <v>20:02:19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F1:F5"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F1:G4"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Дней тренировок подряд</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Самая поздняя тренировка</t>
-  </si>
-  <si>
-    <t>Столько же калорий содержится в 86,21 литрах пива</t>
   </si>
 </sst>
 </file>
@@ -167,12 +164,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -234,6 +225,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,16 +352,13 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,64 +370,91 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -445,31 +466,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,30 +496,33 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v>174</v>
+            <v>179</v>
           </cell>
           <cell r="F1" t="str">
-            <v>21.01.2022-13.07.2022</v>
+            <v>21.01.2022-18.07.2022</v>
           </cell>
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>50:33:47</v>
+            <v>52:11:29</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>613,12 км</v>
+            <v>634,17 км</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>Именно на таком расстоянии друг от друга находятся "Пенза" и "Белебей"</v>
+            <v>Именно на таком расстоянии друг от друга находятся "Старый Оскол" и "Тверь"</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>39 763 килокалорий</v>
+            <v>41 010 килокалорий</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>Столько же калорий содержится в 7,16 килограммах арахиса</v>
           </cell>
         </row>
         <row r="8">
@@ -981,7 +981,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,192 +999,193 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="str">
+      <c r="B1" s="35" t="str">
         <f>[1]Sheet0!$B$1</f>
-        <v>174</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="31" t="str">
+        <v>179</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="27" t="str">
         <f>[1]Sheet0!$F$1</f>
-        <v>21.01.2022-13.07.2022</v>
-      </c>
-      <c r="G1" s="32"/>
+        <v>21.01.2022-18.07.2022</v>
+      </c>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28" t="str">
+      <c r="B2" s="36" t="str">
         <f>[1]Sheet0!$B$2</f>
-        <v>50:33:47</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+        <v>52:11:29</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="str">
+      <c r="B3" s="37" t="str">
         <f>[1]Sheet0!$B$3</f>
-        <v>613,12 км</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
+        <v>634,17 км</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="30" t="str">
+      <c r="B4" s="38" t="str">
         <f>[1]Sheet0!$B$4</f>
-        <v>Именно на таком расстоянии друг от друга находятся "Пенза" и "Белебей"</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>Именно на таком расстоянии друг от друга находятся "Старый Оскол" и "Тверь"</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="str">
+      <c r="B5" s="39" t="str">
         <f>[1]Sheet0!$B$5</f>
-        <v>39 763 килокалорий</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="39"/>
+        <v>41 010 килокалорий</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="33" t="str">
+        <f>[1]Sheet0!$F$5</f>
+        <v>Столько же калорий содержится в 7,16 килограммах арахиса</v>
+      </c>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="str">
+      <c r="B8" s="13" t="str">
         <f>[1]Sheet0!$B$8</f>
         <v>379</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="13" t="str">
         <f>[1]Sheet0!$C$8</f>
         <v>00:05:36</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="13" t="str">
         <f>[1]Sheet0!$D$8</f>
         <v>00:30:55</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="13" t="str">
         <f>[1]Sheet0!$E$8</f>
         <v>5,51 км</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="13" t="str">
         <f>[1]Sheet0!$F$8</f>
         <v>05.06.2022</v>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="13" t="str">
         <f>[1]Sheet0!$G$8</f>
         <v>06:57:00</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="str">
+      <c r="B9" s="14" t="str">
         <f>[1]Sheet0!$B$9</f>
         <v>164</v>
       </c>
-      <c r="C9" s="15" t="str">
+      <c r="C9" s="14" t="str">
         <f>[1]Sheet0!$C$9</f>
         <v>00:04:41</v>
       </c>
-      <c r="D9" s="15" t="str">
+      <c r="D9" s="14" t="str">
         <f>[1]Sheet0!$D$9</f>
         <v>00:13:53</v>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="14" t="str">
         <f>[1]Sheet0!$E$9</f>
         <v>2,96 км</v>
       </c>
-      <c r="F9" s="15" t="str">
+      <c r="F9" s="14" t="str">
         <f>[1]Sheet0!$F$9</f>
         <v>24.02.2022</v>
       </c>
-      <c r="G9" s="15" t="str">
+      <c r="G9" s="14" t="str">
         <f>[1]Sheet0!$G$9</f>
         <v>09:31:15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="15" t="str">
         <f>[1]Sheet0!$B$10</f>
         <v>272</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" s="15" t="str">
         <f>[1]Sheet0!$C$10</f>
         <v>00:06:11</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" s="15" t="str">
         <f>[1]Sheet0!$D$10</f>
         <v>00:25:15</v>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="15" t="str">
         <f>[1]Sheet0!$E$10</f>
         <v>4,08 км</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="15" t="str">
         <f>[1]Sheet0!$F$10</f>
         <v>04.07.2022</v>
       </c>
-      <c r="G10" s="16" t="str">
+      <c r="G10" s="15" t="str">
         <f>[1]Sheet0!$G$10</f>
         <v>06:47:55</v>
       </c>
@@ -1193,156 +1194,156 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="16" t="str">
         <f>[1]Sheet0!$B$11</f>
         <v>179</v>
       </c>
-      <c r="C11" s="17" t="str">
+      <c r="C11" s="16" t="str">
         <f>[1]Sheet0!$C$11</f>
         <v>00:04:10</v>
       </c>
-      <c r="D11" s="17" t="str">
+      <c r="D11" s="16" t="str">
         <f>[1]Sheet0!$D$11</f>
         <v>00:13:25</v>
       </c>
-      <c r="E11" s="17" t="str">
+      <c r="E11" s="16" t="str">
         <f>[1]Sheet0!$E$11</f>
         <v>3,22 км</v>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="16" t="str">
         <f>[1]Sheet0!$F$11</f>
         <v>26.03.2022</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="16" t="str">
         <f>[1]Sheet0!$G$11</f>
         <v>06:42:15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18" t="str">
+      <c r="B12" s="17" t="str">
         <f>[1]Sheet0!$B$12</f>
         <v>168</v>
       </c>
-      <c r="C12" s="18" t="str">
+      <c r="C12" s="17" t="str">
         <f>[1]Sheet0!$C$12</f>
         <v>00:04:35</v>
       </c>
-      <c r="D12" s="18" t="str">
+      <c r="D12" s="17" t="str">
         <f>[1]Sheet0!$D$12</f>
         <v>00:12:19</v>
       </c>
-      <c r="E12" s="18" t="str">
+      <c r="E12" s="17" t="str">
         <f>[1]Sheet0!$E$12</f>
         <v>2,69 км</v>
       </c>
-      <c r="F12" s="18" t="str">
+      <c r="F12" s="17" t="str">
         <f>[1]Sheet0!$F$12</f>
         <v>28.05.2022</v>
       </c>
-      <c r="G12" s="18" t="str">
+      <c r="G12" s="17" t="str">
         <f>[1]Sheet0!$G$12</f>
         <v>06:28:39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19" t="str">
+      <c r="B13" s="18" t="str">
         <f>[1]Sheet0!$B$13</f>
         <v>379</v>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C13" s="18" t="str">
         <f>[1]Sheet0!$C$13</f>
         <v>00:05:36</v>
       </c>
-      <c r="D13" s="19" t="str">
+      <c r="D13" s="18" t="str">
         <f>[1]Sheet0!$D$13</f>
         <v>00:30:55</v>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="18" t="str">
         <f>[1]Sheet0!$E$13</f>
         <v>5,51 км</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="18" t="str">
         <f>[1]Sheet0!$F$13</f>
         <v>05.06.2022</v>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="18" t="str">
         <f>[1]Sheet0!$G$13</f>
         <v>06:57:00</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="str">
+      <c r="B14" s="21" t="str">
         <f>[1]Sheet0!$B$14</f>
         <v>228</v>
       </c>
-      <c r="C14" s="22" t="str">
+      <c r="C14" s="21" t="str">
         <f>[1]Sheet0!$C$14</f>
         <v>00:05:02</v>
       </c>
-      <c r="D14" s="22" t="str">
+      <c r="D14" s="21" t="str">
         <f>[1]Sheet0!$D$14</f>
         <v>00:17:21</v>
       </c>
-      <c r="E14" s="22" t="str">
+      <c r="E14" s="21" t="str">
         <f>[1]Sheet0!$E$14</f>
         <v>3,44 км</v>
       </c>
-      <c r="F14" s="22" t="str">
+      <c r="F14" s="21" t="str">
         <f>[1]Sheet0!$F$14</f>
         <v>21.04.2022</v>
       </c>
-      <c r="G14" s="22" t="str">
+      <c r="G14" s="21" t="str">
         <f>[1]Sheet0!$G$14</f>
         <v>05:22:25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="23" t="str">
+      <c r="B15" s="22" t="str">
         <f>[1]Sheet0!$B$15</f>
         <v>255</v>
       </c>
-      <c r="C15" s="23" t="str">
+      <c r="C15" s="22" t="str">
         <f>[1]Sheet0!$C$15</f>
         <v>00:04:24</v>
       </c>
-      <c r="D15" s="23" t="str">
+      <c r="D15" s="22" t="str">
         <f>[1]Sheet0!$D$15</f>
         <v>00:17:24</v>
       </c>
-      <c r="E15" s="23" t="str">
+      <c r="E15" s="22" t="str">
         <f>[1]Sheet0!$E$15</f>
         <v>3,95 км</v>
       </c>
-      <c r="F15" s="23" t="str">
+      <c r="F15" s="22" t="str">
         <f>[1]Sheet0!$F$15</f>
         <v>12.06.2022</v>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="22" t="str">
         <f>[1]Sheet0!$G$15</f>
         <v>20:02:19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F1:G4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F1:G4"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -496,33 +496,33 @@
       <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
-            <v>179</v>
+            <v>197</v>
           </cell>
           <cell r="F1" t="str">
-            <v>21.01.2022-18.07.2022</v>
+            <v>21.01.2022-05.08.2022</v>
           </cell>
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>52:11:29</v>
+            <v>58:13:50</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>634,17 км</v>
+            <v>709,62 км</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4" t="str">
-            <v>Именно на таком расстоянии друг от друга находятся "Старый Оскол" и "Тверь"</v>
+            <v>Именно на таком расстоянии друг от друга находятся "Волгоград" и "Димитровград"</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5" t="str">
-            <v>41 010 килокалорий</v>
+            <v>45 947 килокалорий</v>
           </cell>
           <cell r="F5" t="str">
-            <v>Столько же калорий содержится в 7,16 килограммах арахиса</v>
+            <v>Столько же калорий содержится в 10,55 килограммах сахара</v>
           </cell>
         </row>
         <row r="8">
@@ -981,7 +981,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,14 +1001,14 @@
       </c>
       <c r="B1" s="35" t="str">
         <f>[1]Sheet0!$B$1</f>
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="35"/>
       <c r="F1" s="27" t="str">
         <f>[1]Sheet0!$F$1</f>
-        <v>21.01.2022-18.07.2022</v>
+        <v>21.01.2022-05.08.2022</v>
       </c>
       <c r="G1" s="28"/>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B2" s="36" t="str">
         <f>[1]Sheet0!$B$2</f>
-        <v>52:11:29</v>
+        <v>58:13:50</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B3" s="37" t="str">
         <f>[1]Sheet0!$B$3</f>
-        <v>634,17 км</v>
+        <v>709,62 км</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="37"/>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B4" s="38" t="str">
         <f>[1]Sheet0!$B$4</f>
-        <v>Именно на таком расстоянии друг от друга находятся "Старый Оскол" и "Тверь"</v>
+        <v>Именно на таком расстоянии друг от друга находятся "Волгоград" и "Димитровград"</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -1054,20 +1054,20 @@
       <c r="F4" s="31"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="39" t="str">
         <f>[1]Sheet0!$B$5</f>
-        <v>41 010 килокалорий</v>
+        <v>45 947 килокалорий</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39"/>
       <c r="F5" s="33" t="str">
         <f>[1]Sheet0!$F$5</f>
-        <v>Столько же калорий содержится в 7,16 килограммах арахиса</v>
+        <v>Столько же калорий содержится в 10,55 килограммах сахара</v>
       </c>
       <c r="G5" s="34"/>
     </row>
